--- a/data/Трофические связи (Общая экология 2023)(1-100).xlsx
+++ b/data/Трофические связи (Общая экология 2023)(1-100).xlsx
@@ -635,14 +635,7 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,12 +788,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1098,152 +1097,153 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1588,8 +1588,8 @@
   <sheetPr/>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1835,8 +1835,8 @@
       <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C22">
-        <v>4</v>
+      <c r="C22" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1857,8 +1857,8 @@
       <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C24">
-        <v>5</v>
+      <c r="C24" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3">

--- a/data/Трофические связи (Общая экология 2023)(1-100).xlsx
+++ b/data/Трофические связи (Общая экология 2023)(1-100).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t>Почта</t>
   </si>
@@ -623,6 +623,36 @@
   </si>
   <si>
     <t>Анастасия Бохонко</t>
+  </si>
+  <si>
+    <t>st123832@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Елизавета Стародубова</t>
+  </si>
+  <si>
+    <t>st123859@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Екатерина Галкина</t>
+  </si>
+  <si>
+    <t>st123950@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Владислава Ягодская</t>
+  </si>
+  <si>
+    <t>st123949@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Михаил Бабин</t>
+  </si>
+  <si>
+    <t>st123831@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>София Дмитровская</t>
   </si>
 </sst>
 </file>
@@ -635,7 +665,14 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1112,138 +1149,139 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1317,8 +1355,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C101" totalsRowShown="0">
-  <autoFilter ref="A1:C101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C106" totalsRowShown="0">
+  <autoFilter ref="A1:C106"/>
   <tableColumns count="3">
     <tableColumn id="4" name="Почта" dataDxfId="0"/>
     <tableColumn id="5" name="Имя" dataDxfId="1"/>
@@ -1586,10 +1624,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2708,6 +2746,61 @@
         <v>4</v>
       </c>
     </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C102" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C103" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C104" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C106" s="3">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
